--- a/02江铜流媒体平台/02交流/报价.xlsx
+++ b/02江铜流媒体平台/02交流/报价.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -277,8 +277,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +386,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -433,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,9 +469,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,6 +521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,18 +716,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -716,7 +753,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -726,7 +763,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -734,7 +771,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -744,7 +781,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -754,7 +791,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -764,7 +801,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -772,7 +809,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="33">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -784,7 +821,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -795,7 +832,7 @@
       <c r="D10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="33">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -805,7 +842,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="33">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -815,7 +852,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -825,7 +862,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>27</v>
@@ -833,7 +870,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>28</v>
@@ -841,7 +878,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
@@ -849,7 +886,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -859,7 +896,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>32</v>
@@ -869,7 +906,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -879,7 +916,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -889,7 +926,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
         <v>39</v>
@@ -897,7 +934,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -905,7 +942,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
         <v>41</v>
@@ -913,7 +950,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -921,7 +958,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -933,7 +970,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -943,7 +980,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>46</v>
@@ -953,7 +990,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
         <v>47</v>
@@ -963,7 +1000,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
         <v>48</v>
@@ -973,7 +1010,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="33">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
         <v>50</v>
@@ -983,7 +1020,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
         <v>52</v>
@@ -993,7 +1030,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
         <v>54</v>
@@ -1003,7 +1040,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>60</v>
@@ -1013,7 +1050,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
         <v>62</v>
@@ -1033,7 +1070,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1043,7 +1080,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +1096,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
